--- a/fiels/shoraka/9.xlsx
+++ b/fiels/shoraka/9.xlsx
@@ -5,19 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Dropbox\shoraka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\exel_010\fiels\shoraka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93E7A2B-1C67-49B4-9C97-AEB10B0E0CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2919940F-EED2-4155-9332-2F3E2D4636E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B75C0FD-9E51-42FD-A953-3830BC95357B}"/>
   </bookViews>
   <sheets>
     <sheet name="9.1-9.15" sheetId="1" r:id="rId1"/>
     <sheet name="9.16-9.30" sheetId="2" r:id="rId2"/>
+    <sheet name="10.1-10.15" sheetId="3" r:id="rId3"/>
+    <sheet name="10.16-10.30" sheetId="4" r:id="rId4"/>
+    <sheet name="11.1-11.15" sheetId="5" r:id="rId5"/>
+    <sheet name="11.16-11.30" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="25">
   <si>
     <t>تاریخ</t>
   </si>
@@ -98,6 +102,21 @@
   </si>
   <si>
     <t>بابت صورتحساب دوره</t>
+  </si>
+  <si>
+    <t>کرایه ما و رمضان</t>
+  </si>
+  <si>
+    <t>که 300 باید اون بده</t>
+  </si>
+  <si>
+    <t>خرید بسته بندی</t>
+  </si>
+  <si>
+    <t>کرایه چرخ و حمل بار</t>
+  </si>
+  <si>
+    <t>300 طلب از رمضان بوده</t>
   </si>
 </sst>
 </file>
@@ -409,10 +428,10 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4.15-4.30"/>
-      <sheetName val="5.1-5.16"/>
+      <sheetName val="5.1-5.15"/>
       <sheetName val="5.15-5.30"/>
       <sheetName val="6.1-6.15"/>
-      <sheetName val="6.16-6.30"/>
+      <sheetName val="6.15-6.30"/>
       <sheetName val="7.1-7.15"/>
       <sheetName val="7.16-7.30"/>
       <sheetName val="8.1-8.15"/>
@@ -441,15 +460,14 @@
           <cell r="E30" t="str">
             <v xml:space="preserve"> </v>
           </cell>
-          <cell r="F30" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
+          <cell r="F30"/>
           <cell r="G30" t="str">
             <v xml:space="preserve"> </v>
           </cell>
-          <cell r="I30" t="str">
-            <v>سود</v>
+          <cell r="H30" t="str">
+            <v xml:space="preserve"> </v>
           </cell>
+          <cell r="I30"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -757,7 +775,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,17 +835,17 @@
         <f>'[1]8.16-8.30'!E30</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F2" s="9" t="str">
+      <c r="F2" s="9">
         <f>'[1]8.16-8.30'!F30</f>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G2" s="9" t="str">
         <f>'[1]8.16-8.30'!G30</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="9" t="str">
         <f>'[1]8.16-8.30'!H30</f>
-        <v>0</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I2" s="10" t="s">
         <v>9</v>
@@ -1419,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139B306A-E70B-4434-BB00-2FA00A24F26E}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1432,6 +1450,686 @@
     <col min="6" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9">
+        <f>'9.1-9.15'!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <f>'9.1-9.15'!C30</f>
+        <v>-884.1</v>
+      </c>
+      <c r="D2" s="9">
+        <f>'9.1-9.15'!D30</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <f>'9.1-9.15'!E30</f>
+        <v>884.1</v>
+      </c>
+      <c r="F2" s="9">
+        <f>'9.1-9.15'!F30</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <f>'9.1-9.15'!G30</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <f>'9.1-9.15'!H30</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <f>'[1]8.16-8.30'!I30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>45563</v>
+      </c>
+      <c r="B4" s="12">
+        <v>600</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13">
+        <v>-600</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>45564</v>
+      </c>
+      <c r="B10" s="12">
+        <v>600</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>45565</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18"/>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18"/>
+      <c r="B15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
+      <c r="B16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18"/>
+      <c r="B19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18"/>
+      <c r="B20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18"/>
+      <c r="B21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+      <c r="B23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18"/>
+      <c r="B24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18"/>
+      <c r="B25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18"/>
+      <c r="B27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="18"/>
+      <c r="B28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="18"/>
+      <c r="B29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="9">
+        <f t="shared" ref="B30:G30" si="0">SUM(B2:B29)</f>
+        <v>1200</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="0"/>
+        <v>-884.1</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>284.10000000000002</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4513BB49-5594-4F74-9962-40CFEE1EC540}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1493,9 +2191,9 @@
         <f>'9.1-9.15'!H30</f>
         <v>0</v>
       </c>
-      <c r="I2" s="9" t="str">
+      <c r="I2" s="9">
         <f>'[1]8.16-8.30'!I30</f>
-        <v>سود</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1510,15 +2208,21 @@
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="11">
+        <v>45567</v>
+      </c>
+      <c r="B4" s="12">
+        <v>960</v>
+      </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="15"/>
+      <c r="I4" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
@@ -2041,7 +2745,7 @@
       <c r="A30" s="20"/>
       <c r="B30" s="9">
         <f t="shared" ref="B30:G30" si="0">SUM(B2:B29)</f>
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="C30" s="9">
         <f t="shared" si="0"/>
@@ -2065,6 +2769,1678 @@
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007A341B-C3D7-4846-8423-2079CC86714F}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9">
+        <f>'9.1-9.15'!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <f>'9.1-9.15'!C30</f>
+        <v>-884.1</v>
+      </c>
+      <c r="D2" s="9">
+        <f>'9.1-9.15'!D30</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <f>'9.1-9.15'!E30</f>
+        <v>884.1</v>
+      </c>
+      <c r="F2" s="9">
+        <f>'9.1-9.15'!F30</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <f>'9.1-9.15'!G30</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <f>'9.1-9.15'!H30</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <f>'[1]8.16-8.30'!I30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18"/>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18"/>
+      <c r="B15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
+      <c r="B16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18"/>
+      <c r="B19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18"/>
+      <c r="B20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18"/>
+      <c r="B21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+      <c r="B23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18"/>
+      <c r="B24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18"/>
+      <c r="B25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="9">
+        <f t="shared" ref="B26:G26" si="0">SUM(B2:B25)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="0"/>
+        <v>-884.1</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>884.1</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F669C5-2AD7-496E-BF3D-C2252F2F2B3A}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9">
+        <f>'9.1-9.15'!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <f>'9.1-9.15'!C30</f>
+        <v>-884.1</v>
+      </c>
+      <c r="D2" s="9">
+        <f>'9.1-9.15'!D30</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <f>'9.1-9.15'!E30</f>
+        <v>884.1</v>
+      </c>
+      <c r="F2" s="9">
+        <f>'9.1-9.15'!F30</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <f>'9.1-9.15'!G30</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <f>'9.1-9.15'!H30</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <f>'[1]8.16-8.30'!I30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18"/>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18"/>
+      <c r="B15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
+      <c r="B16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18"/>
+      <c r="B19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18"/>
+      <c r="B20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18"/>
+      <c r="B21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+      <c r="B23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18"/>
+      <c r="B24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18"/>
+      <c r="B25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="9">
+        <f t="shared" ref="B26:G26" si="0">SUM(B2:B25)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="0"/>
+        <v>-884.1</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>884.1</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7A978C-1F28-4C0E-99E0-575245296293}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9">
+        <f>'9.1-9.15'!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <f>'9.1-9.15'!C30</f>
+        <v>-884.1</v>
+      </c>
+      <c r="D2" s="9">
+        <f>'9.1-9.15'!D30</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <f>'9.1-9.15'!E30</f>
+        <v>884.1</v>
+      </c>
+      <c r="F2" s="9">
+        <f>'9.1-9.15'!F30</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <f>'9.1-9.15'!G30</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <f>'9.1-9.15'!H30</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <f>'[1]8.16-8.30'!I30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18"/>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18"/>
+      <c r="B15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
+      <c r="B16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18"/>
+      <c r="B19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18"/>
+      <c r="B20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18"/>
+      <c r="B21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+      <c r="B23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18"/>
+      <c r="B24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18"/>
+      <c r="B25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="9">
+        <f t="shared" ref="B26:G26" si="0">SUM(B2:B25)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="0"/>
+        <v>-884.1</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>884.1</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22" t="s">
         <v>18</v>
       </c>
     </row>
